--- a/Sprint 3/Planung/DatenbankSchraube.xlsx
+++ b/Sprint 3/Planung/DatenbankSchraube.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Uni\Jade\HSP\HSP_Gruppe_F\Sprint 2\Sprint2WPF\Sprint2WPF\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wurbs\Documents\GitHub\HSP_Gruppe_F\Sprint 3\Planung\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FE8AD9E-A9FA-41A2-A595-B379541CA40E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="825" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="3"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -108,7 +109,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -554,19 +555,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="L24" sqref="L24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.5703125" customWidth="1"/>
+    <col min="1" max="1" width="17.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
@@ -574,7 +575,7 @@
       <c r="C1" s="15"/>
       <c r="D1" s="15"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -588,7 +589,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>3</v>
       </c>
@@ -602,7 +603,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>4</v>
       </c>
@@ -616,7 +617,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>5</v>
       </c>
@@ -630,7 +631,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>6</v>
       </c>
@@ -644,7 +645,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>8</v>
       </c>
@@ -658,7 +659,7 @@
         <v>5.3</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>10</v>
       </c>
@@ -672,7 +673,7 @@
         <v>6.4</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>12</v>
       </c>
@@ -686,7 +687,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>14</v>
       </c>
@@ -700,7 +701,7 @@
         <v>8.8000000000000007</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>16</v>
       </c>
@@ -714,7 +715,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>20</v>
       </c>
@@ -728,7 +729,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>24</v>
       </c>
@@ -742,7 +743,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <v>30</v>
       </c>
@@ -756,7 +757,7 @@
         <v>18.7</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>36</v>
       </c>
@@ -776,19 +777,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.28515625" customWidth="1"/>
+    <col min="1" max="1" width="22.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
         <v>5</v>
       </c>
@@ -796,7 +797,7 @@
       <c r="C1" s="16"/>
       <c r="D1" s="15"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -810,7 +811,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>3</v>
       </c>
@@ -824,7 +825,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>4</v>
       </c>
@@ -838,7 +839,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>5</v>
       </c>
@@ -852,7 +853,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>6</v>
       </c>
@@ -866,7 +867,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>8</v>
       </c>
@@ -880,7 +881,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>10</v>
       </c>
@@ -894,7 +895,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>12</v>
       </c>
@@ -908,7 +909,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>16</v>
       </c>
@@ -922,7 +923,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="6">
         <v>20</v>
       </c>
@@ -936,7 +937,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>24</v>
       </c>
@@ -950,7 +951,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="6">
         <v>30</v>
       </c>
@@ -964,7 +965,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <v>36</v>
       </c>
@@ -984,16 +985,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="14" t="s">
         <v>7</v>
       </c>
@@ -1001,7 +1002,7 @@
       <c r="C1" s="14"/>
       <c r="D1" s="15"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
         <v>1</v>
       </c>
@@ -1015,7 +1016,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="9">
         <v>3</v>
       </c>
@@ -1029,7 +1030,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="10">
         <v>4</v>
       </c>
@@ -1043,7 +1044,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="9">
         <v>5</v>
       </c>
@@ -1057,7 +1058,7 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="10">
         <v>6</v>
       </c>
@@ -1071,7 +1072,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="9">
         <v>8</v>
       </c>
@@ -1085,7 +1086,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="10">
         <v>10</v>
       </c>
@@ -1099,7 +1100,7 @@
         <v>6.2</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="9">
         <v>12</v>
       </c>
@@ -1113,7 +1114,7 @@
         <v>7.4</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="10">
         <v>16</v>
       </c>
@@ -1127,7 +1128,7 @@
         <v>8.8000000000000007</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="9">
         <v>20</v>
       </c>
@@ -1147,16 +1148,16 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2:B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="14" t="s">
         <v>8</v>
       </c>
@@ -1164,7 +1165,7 @@
       <c r="C1" s="14"/>
       <c r="D1" s="15"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
         <v>1</v>
       </c>
@@ -1178,7 +1179,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="12">
         <v>3</v>
       </c>
@@ -1192,7 +1193,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="13">
         <v>4</v>
       </c>
@@ -1206,7 +1207,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="12">
         <v>5</v>
       </c>
@@ -1220,7 +1221,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="13">
         <v>6</v>
       </c>
@@ -1234,7 +1235,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="10">
         <v>8</v>
       </c>
@@ -1248,7 +1249,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="9">
         <v>10</v>
       </c>
@@ -1268,48 +1269,73 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:A12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -1318,26 +1344,26 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.7109375" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" customWidth="1"/>
+    <col min="1" max="1" width="17.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.6640625" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>18</v>
       </c>
@@ -1345,7 +1371,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>500</v>
       </c>
@@ -1356,7 +1382,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>800</v>
       </c>
@@ -1367,7 +1393,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>900</v>
       </c>
@@ -1378,7 +1404,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1000</v>
       </c>
@@ -1396,36 +1422,36 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>200</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>500</v>
       </c>
@@ -1436,19 +1462,19 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.5703125" customWidth="1"/>
+    <col min="1" max="1" width="15.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>21</v>
       </c>
@@ -1456,7 +1482,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>7.85</v>
       </c>
@@ -1464,7 +1490,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>7.87</v>
       </c>
